--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/20/seed5/result_data_KNN.xlsx
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>8.080000000000002</v>
+        <v>6.598000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.616</v>
+        <v>5.492999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.252</v>
+        <v>5.295</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.766</v>
+        <v>6.709000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.228</v>
+        <v>6.726000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.936000000000001</v>
+        <v>6.796000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.196000000000001</v>
+        <v>7.341999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.48</v>
+        <v>8.704000000000001</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.470000000000001</v>
+        <v>6.052</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.62</v>
+        <v>6.477000000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.845999999999999</v>
+        <v>5.05</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.459000000000001</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.23</v>
+        <v>4.700000000000001</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.388</v>
+        <v>4.988999999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.616</v>
+        <v>5.002000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.446</v>
+        <v>6.347</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.343999999999999</v>
+        <v>6.600999999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.97</v>
+        <v>5.512</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.61</v>
+        <v>5.146000000000001</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.830000000000001</v>
+        <v>6.109</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.278</v>
+        <v>5.380999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>5.952</v>
+        <v>5.217000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
